--- a/Previous.Release.Info.xlsx
+++ b/Previous.Release.Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaja\My_Programs_Local\Options.File.Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662607A-3EA2-465B-9F7B-EC92560CA26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD145A-C0D7-4594-9C5F-C9652E3BED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{50D59C88-69C0-446D-A87E-C10FB43ACCE5}"/>
+    <workbookView xWindow="4335" yWindow="2625" windowWidth="19110" windowHeight="15345" xr2:uid="{50D59C88-69C0-446D-A87E-C10FB43ACCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Desktop</t>
   </si>
@@ -80,9 +80,6 @@
     <t>XP, 11</t>
   </si>
   <si>
-    <t>Sonoma</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>WPF</t>
+  </si>
+  <si>
+    <t>Yes (No for macOS)</t>
+  </si>
+  <si>
+    <t>Yes (No for macOS x64)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +196,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -533,7 +536,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -577,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,13 +608,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +636,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -661,26 +664,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -705,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,10 +719,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +730,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,23 +774,23 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -807,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -816,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -825,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -834,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -843,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1"/>
     </row>
